--- a/配表/Scene.xlsx
+++ b/配表/Scene.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9795CBA-3A8F-40B3-A9CF-28F2EB772FF0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6041105-8E70-4844-A386-0598ADD5F322}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Menu</t>
+    <t>EnterScene</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -399,7 +399,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/配表/Scene.xlsx
+++ b/配表/Scene.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6041105-8E70-4844-A386-0598ADD5F322}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD08076-E4B8-47F9-9618-67CF223013C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,14 @@
   </si>
   <si>
     <t>EnterScene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainScene</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -396,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -471,6 +479,20 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
